--- a/qbenchmarks/analysis/games-analysis.xlsx
+++ b/qbenchmarks/analysis/games-analysis.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/qbenchmarks/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07D61C9-F91A-6C4F-B35A-778E10CD14FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA24DB0-1949-C043-B478-FBD67DD88F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="7360" windowWidth="26440" windowHeight="15440" xr2:uid="{583F3F6E-F0B6-1E45-809E-4DA5455BF68E}"/>
+    <workbookView xWindow="20180" yWindow="2840" windowWidth="31020" windowHeight="24320" activeTab="4" xr2:uid="{583F3F6E-F0B6-1E45-809E-4DA5455BF68E}"/>
   </bookViews>
   <sheets>
     <sheet name="NIM F4" sheetId="1" r:id="rId1"/>
     <sheet name="NIM T4" sheetId="2" r:id="rId2"/>
     <sheet name="LDOM A T" sheetId="3" r:id="rId3"/>
     <sheet name="LDOM B F" sheetId="4" r:id="rId4"/>
+    <sheet name="LDOM-BY5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
   <si>
     <t>N</t>
   </si>
@@ -81,15 +82,49 @@
   <si>
     <t>Trend LY</t>
   </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>log C</t>
+  </si>
+  <si>
+    <t>Total Clauses</t>
+  </si>
+  <si>
+    <t>Input Clauses</t>
+  </si>
+  <si>
+    <t>Solve Time</t>
+  </si>
+  <si>
+    <t>log T</t>
+  </si>
+  <si>
+    <t>Qproof Time</t>
+  </si>
+  <si>
+    <t>Qrat Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,9 +150,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17C5056-3745-FB4B-B819-3956911D1C1A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -826,7 +862,7 @@
         <v>154972</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:D18" si="0">LOG(A3)</f>
+        <f t="shared" ref="C3:D14" si="0">LOG(A3)</f>
         <v>0.84509804001425681</v>
       </c>
       <c r="D3">
@@ -1419,7 +1455,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+      <selection activeCell="E2" sqref="E2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2124,4 +2160,1421 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9015DD3F-8673-2F46-8038-D04A657C1A18}">
+  <dimension ref="A1:G94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <f>LOG(A3)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D3">
+        <f>LOG(B3)</f>
+        <v>1.9138138523837167</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">TREND(D$3:D$8,C$3:C$8,E3)</f>
+        <v>5.4616795897330483E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F4-F3</f>
+        <v>2.7094971370295666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>666</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:D8" si="0">LOG(A4)</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.823474229170301</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">TREND(D$3:D$8,C$3:C$8,E4)</f>
+        <v>2.7641139329268971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1725</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.2367890994092927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3880</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.5888317255942073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6637</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3.821971817642043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>11166</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.0478976235144106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>81</v>
+      </c>
+      <c r="C11">
+        <f>LOG(A11)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D11">
+        <f>LOG(B11)</f>
+        <v>1.9084850188786497</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">TREND(D$11:D$18,C$11:C$18,E11)</f>
+        <v>6.2877729573054264E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <f>F12-F11</f>
+        <v>2.6995917555829618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>664</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C16" si="1">LOG(A12)</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D16" si="2">LOG(B12)</f>
+        <v>2.8221680793680175</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">TREND(D$11:D$18,C$11:C$18,E12)</f>
+        <v>2.7624694851560161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1728</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>3.2375437381428744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>3885</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>3.5893910231369333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>6631</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>3.821579027912009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>11159</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>4.0476252775817834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>24010</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C18" si="3">LOG(A17)</f>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D18" si="4">LOG(B17)</f>
+        <v>4.3803921600570277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>43904</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>4.6425040896906387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5451</v>
+      </c>
+      <c r="C22">
+        <f>LOG(A22)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D22">
+        <f>LOG(B22)</f>
+        <v>3.7364761820276966</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">TREND(D$22:D$27,C$22:C$27,E22)</f>
+        <v>3.4850255563582344E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <f>F23-F22</f>
+        <v>5.3830750048722189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>336886</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:C27" si="5">LOG(A23)</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D27" si="6">LOG(B23)</f>
+        <v>5.5274829633435987</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">TREND(D$22:D$27,C$22:C$27,E23)</f>
+        <v>5.4179252604358012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2235543</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="5"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="6"/>
+        <v>6.3493830278086669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2">
+        <v>11293078</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="5"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="6"/>
+        <v>7.0528123277733075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>33860508</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="6"/>
+        <v>7.5296934694238864</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2">
+        <v>93354759</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="5"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
+        <v>7.9701364621325324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>5937</v>
+      </c>
+      <c r="C30">
+        <f>LOG(A30)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D30">
+        <f>LOG(B30)</f>
+        <v>3.7735670489260587</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">TREND(D$30:D$37,C$30:C$37,E30)</f>
+        <v>0.91792037316895669</v>
+      </c>
+      <c r="G30" s="1">
+        <f>F31-F30</f>
+        <v>4.0532311867130435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>126127</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:C37" si="7">LOG(A31)</f>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D37" si="8">LOG(B31)</f>
+        <v>5.1008080659214956</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">TREND(D$30:D$37,C$30:C$37,E31)</f>
+        <v>4.9711515598820002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>381593</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="7"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="8"/>
+        <v>5.5816003993411325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>1232252</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="7"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="8"/>
+        <v>6.0906995317066634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>3621470</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="7"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="8"/>
+        <v>6.5588848918870255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>7084367</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="7"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="8"/>
+        <v>6.8503010513811589</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>26150238</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="7"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>7.4174756458463653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>85077630</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="7"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="8"/>
+        <v>7.9298153832962974</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>0.1</v>
+      </c>
+      <c r="C41">
+        <f>LOG(A41)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D41">
+        <f>LOG(B41)</f>
+        <v>-1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">TREND(D$41:D$46,C$41:C$46,E41)</f>
+        <v>-4.8166791930635817</v>
+      </c>
+      <c r="G41" s="1">
+        <f>F42-F41</f>
+        <v>5.5236558887364682</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>6.41</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:C46" si="9">LOG(A42)</f>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D46" si="10">LOG(B42)</f>
+        <v>0.80685802951881747</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">TREND(D$41:D$46,C$41:C$46,E42)</f>
+        <v>0.70697669567288646</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>43.78</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="9"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="10"/>
+        <v>1.641275757231913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>230.73</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="9"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="10"/>
+        <v>2.3631040660746354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>25</v>
+      </c>
+      <c r="B45">
+        <v>790.98</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="9"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="10"/>
+        <v>2.898165502461711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>30</v>
+      </c>
+      <c r="B46">
+        <v>2181.0300000000002</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="9"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="10"/>
+        <v>3.3386616393269128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>0.11</v>
+      </c>
+      <c r="C49">
+        <f>LOG(A49)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D49">
+        <f>LOG(B49)</f>
+        <v>-0.95860731484177497</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" cm="1">
+        <f t="array" ref="F49">TREND(D$49:D$56,C$49:C$56,E49)</f>
+        <v>-4.04847796790314</v>
+      </c>
+      <c r="G49" s="1">
+        <f>F50-F49</f>
+        <v>4.3130562504505088</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>2.38</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:C56" si="11">LOG(A50)</f>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:D56" si="12">LOG(B50)</f>
+        <v>0.37657695705651195</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" cm="1">
+        <f t="array" ref="F50">TREND(D$49:D$56,C$49:C$56,E50)</f>
+        <v>0.26457828254736881</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>7.67</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="11"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="12"/>
+        <v>0.88479536394898095</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>27.31</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="11"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="12"/>
+        <v>1.4363217001397333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>83.6</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="11"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="12"/>
+        <v>1.9222062774390163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>180.54</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="11"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="12"/>
+        <v>2.2565734381237244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>40</v>
+      </c>
+      <c r="B55">
+        <v>762.6</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="11"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="12"/>
+        <v>2.8822968009376519</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56">
+        <v>2894.4</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="11"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="12"/>
+        <v>3.4615585495157384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>0.08</v>
+      </c>
+      <c r="C60">
+        <f>LOG(A60)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D60">
+        <f>LOG(B60)</f>
+        <v>-1.0969100130080565</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" cm="1">
+        <f t="array" ref="F60">TREND(D$60:D$65,C$60:C$65,E60)</f>
+        <v>-5.2253515279105684</v>
+      </c>
+      <c r="G60" s="1">
+        <f>F61-F60</f>
+        <v>5.8616845957941663</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>5.04</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:C65" si="13">LOG(A61)</f>
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61:D65" si="14">LOG(B61)</f>
+        <v>0.70243053644552533</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" cm="1">
+        <f t="array" ref="F61">TREND(D$60:D$65,C$60:C$65,E61)</f>
+        <v>0.63633306788359789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="13"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="14"/>
+        <v>1.5403294747908738</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>20</v>
+      </c>
+      <c r="B63">
+        <v>207.94</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="13"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="14"/>
+        <v>2.317938039636056</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>25</v>
+      </c>
+      <c r="B64">
+        <v>860.73</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="13"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="14"/>
+        <v>2.9348669401881544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>3809.5</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="13"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="14"/>
+        <v>3.5808679779090302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>0.08</v>
+      </c>
+      <c r="C68">
+        <f>LOG(A68)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D68">
+        <f>LOG(B68)</f>
+        <v>-1.0969100130080565</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" cm="1">
+        <f t="array" ref="F68">TREND(D$68:D$75,C$68:C$75,E68)</f>
+        <v>-4.196413250376172</v>
+      </c>
+      <c r="G68" s="1">
+        <f>F69-F68</f>
+        <v>4.3095282430756994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>1.73</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:C75" si="15">LOG(A69)</f>
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ref="D69:D75" si="16">LOG(B69)</f>
+        <v>0.2380461031287954</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" cm="1">
+        <f t="array" ref="F69">TREND(D$68:D$75,C$68:C$75,E69)</f>
+        <v>0.11311499269952741</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>15</v>
+      </c>
+      <c r="B70">
+        <v>5.41</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="15"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="16"/>
+        <v>0.73319726510656946</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>20</v>
+      </c>
+      <c r="B71">
+        <v>17.86</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="15"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="16"/>
+        <v>1.2518814545525276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>25</v>
+      </c>
+      <c r="B72">
+        <v>56.64</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="15"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="16"/>
+        <v>1.7531232446817127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>30</v>
+      </c>
+      <c r="B73">
+        <v>119.25</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="15"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="16"/>
+        <v>2.0764583877121514</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>40</v>
+      </c>
+      <c r="B74">
+        <v>563.79999999999995</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="15"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="16"/>
+        <v>2.7511250715355833</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>50</v>
+      </c>
+      <c r="B75">
+        <v>2161.6999999999998</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="15"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="16"/>
+        <v>3.3347954225567737</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.69896999999999998</v>
+      </c>
+      <c r="D79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" cm="1">
+        <f t="array" ref="F79">TREND(D$79:D$81,C$79:C$81,E79)</f>
+        <v>-4.8707301416209576</v>
+      </c>
+      <c r="G79" s="1">
+        <f>F80-F79</f>
+        <v>5.5860806996727694</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.80685803</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" cm="1">
+        <f t="array" ref="F80">TREND(D$79:D$81,C$79:C$81,E80)</f>
+        <v>0.7153505580518118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>558.68399999999997</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1.17609126</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1.6412757600000001</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.69896999999999998</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1.9084850200000001</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" cm="1">
+        <f t="array" ref="F87">TREND(D$87:D$94,C$87:C$94,E87)</f>
+        <v>6.2877731247330981E-2</v>
+      </c>
+      <c r="G87" s="1">
+        <f>F88-F87</f>
+        <v>2.6995917569097565</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>10</v>
+      </c>
+      <c r="B88">
+        <v>4.0259999999999998</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2.82216808</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" cm="1">
+        <f t="array" ref="F88">TREND(D$87:D$94,C$87:C$94,E88)</f>
+        <v>2.7624694881570875</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>15</v>
+      </c>
+      <c r="B89">
+        <v>19.978000000000002</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1.17609126</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3.23754374</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>20</v>
+      </c>
+      <c r="B90">
+        <v>68.694999999999993</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1.3010299999999999</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3.5893910199999999</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>25</v>
+      </c>
+      <c r="B91">
+        <v>127.229</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1.3979400099999999</v>
+      </c>
+      <c r="D91" s="2">
+        <v>3.8215790300000001</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>30</v>
+      </c>
+      <c r="B92">
+        <v>179.083</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1.4771212499999999</v>
+      </c>
+      <c r="D92" s="2">
+        <v>4.0476252800000001</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>40</v>
+      </c>
+      <c r="B93">
+        <v>2594.8910000000001</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1.6020599900000001</v>
+      </c>
+      <c r="D93" s="2">
+        <v>4.3803921600000004</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>50</v>
+      </c>
+      <c r="B94">
+        <v>3342.8029999999999</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1.6989700000000001</v>
+      </c>
+      <c r="D94" s="2">
+        <v>4.6425040900000001</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/qbenchmarks/analysis/games-analysis.xlsx
+++ b/qbenchmarks/analysis/games-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/qbenchmarks/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA24DB0-1949-C043-B478-FBD67DD88F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C40421-4BEB-FA44-BC78-C0CC1D20F4F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20180" yWindow="2840" windowWidth="31020" windowHeight="24320" activeTab="4" xr2:uid="{583F3F6E-F0B6-1E45-809E-4DA5455BF68E}"/>
+    <workbookView xWindow="3460" yWindow="1380" windowWidth="31020" windowHeight="24320" activeTab="4" xr2:uid="{583F3F6E-F0B6-1E45-809E-4DA5455BF68E}"/>
   </bookViews>
   <sheets>
     <sheet name="NIM F4" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
   <si>
     <t>N</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Qrat Time</t>
+  </si>
+  <si>
+    <t>DUAL-SAT</t>
+  </si>
+  <si>
+    <t>DUAL-REF</t>
   </si>
 </sst>
 </file>
@@ -2164,20 +2170,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9015DD3F-8673-2F46-8038-D04A657C1A18}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="R79" sqref="R79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -2214,8 +2220,10 @@
         <f>F4-F3</f>
         <v>2.7094971370295666</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" s="2"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>10</v>
       </c>
@@ -2237,8 +2245,9 @@
         <f t="array" ref="F4">TREND(D$3:D$8,C$3:C$8,E4)</f>
         <v>2.7641139329268971</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>15</v>
       </c>
@@ -2253,8 +2262,9 @@
         <f t="shared" si="0"/>
         <v>3.2367890994092927</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>20</v>
       </c>
@@ -2269,8 +2279,9 @@
         <f t="shared" si="0"/>
         <v>3.5888317255942073</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>25</v>
       </c>
@@ -2285,8 +2296,9 @@
         <f t="shared" si="0"/>
         <v>3.821971817642043</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>30</v>
       </c>
@@ -2301,13 +2313,14 @@
         <f t="shared" si="0"/>
         <v>4.0478976235144106</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2334,7 +2347,7 @@
         <v>2.6995917555829618</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2357,7 +2370,7 @@
         <v>2.7624694851560161</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>15</v>
       </c>
@@ -2373,7 +2386,7 @@
         <v>3.2375437381428744</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20</v>
       </c>
@@ -2389,7 +2402,7 @@
         <v>3.5893910231369333</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>25</v>
       </c>
@@ -2405,7 +2418,7 @@
         <v>3.821579027912009</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>30</v>
       </c>
@@ -2421,7 +2434,7 @@
         <v>4.0476252775817834</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>40</v>
       </c>
@@ -2437,7 +2450,7 @@
         <v>4.3803921600570277</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50</v>
       </c>
@@ -2453,12 +2466,15 @@
         <v>4.6425040896906387</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2468,8 +2484,17 @@
       <c r="D21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -2495,8 +2520,33 @@
         <f>F23-F22</f>
         <v>5.3830750048722189</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>7015</v>
+      </c>
+      <c r="K22">
+        <f>LOG(I22)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="L22">
+        <f>LOG(J22)</f>
+        <v>3.8460276753643785</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" cm="1">
+        <f t="array" ref="N22">TREND(L$22:L$27,K$22:K$27,M22)</f>
+        <v>0.12355352012406851</v>
+      </c>
+      <c r="O22" s="1">
+        <f>N23-N22</f>
+        <v>5.4238074902825879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>10</v>
       </c>
@@ -2518,8 +2568,29 @@
         <f t="array" ref="F23">TREND(D$22:D$27,C$22:C$27,E23)</f>
         <v>5.4179252604358012</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I23" s="2">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>463779</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K27" si="7">LOG(I23)</f>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L27" si="8">LOG(J23)</f>
+        <v>5.666311079811674</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" cm="1">
+        <f t="array" ref="N23">TREND(L$22:L$27,K$22:K$27,M23)</f>
+        <v>5.5473610104066564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>15</v>
       </c>
@@ -2534,8 +2605,22 @@
         <f t="shared" si="6"/>
         <v>6.3493830278086669</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I24" s="2">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <v>3092438</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>6.4903010012590245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -2550,8 +2635,22 @@
         <f t="shared" si="6"/>
         <v>7.0528123277733075</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I25" s="2">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>15738321</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="8"/>
+        <v>7.1969583989678334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2566,8 +2665,22 @@
         <f t="shared" si="6"/>
         <v>7.5296934694238864</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I26" s="2">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>46970338</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="7"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="8"/>
+        <v>7.6718236853909714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>30</v>
       </c>
@@ -2582,13 +2695,30 @@
         <f t="shared" si="6"/>
         <v>7.9701364621325324</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I27" s="2">
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <v>130014906</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="8"/>
+        <v>8.113993146325603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2614,8 +2744,33 @@
         <f>F31-F30</f>
         <v>4.0532311867130435</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>6616</v>
+      </c>
+      <c r="K30">
+        <f>LOG(I30)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="L30">
+        <f>LOG(J30)</f>
+        <v>3.8205954965444904</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" cm="1">
+        <f t="array" ref="N30">TREND(L$30:L$35,K$30:K$35,M30)</f>
+        <v>7.2820491242174157E-2</v>
+      </c>
+      <c r="O30" s="1">
+        <f>N31-N30</f>
+        <v>5.4627536279177997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10</v>
       </c>
@@ -2623,11 +2778,11 @@
         <v>126127</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:C37" si="7">LOG(A31)</f>
+        <f t="shared" ref="C31:C37" si="9">LOG(A31)</f>
         <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:D37" si="8">LOG(B31)</f>
+        <f t="shared" ref="D31:D37" si="10">LOG(B31)</f>
         <v>5.1008080659214956</v>
       </c>
       <c r="E31">
@@ -2637,8 +2792,29 @@
         <f t="array" ref="F31">TREND(D$30:D$37,C$30:C$37,E31)</f>
         <v>4.9711515598820002</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>449938</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:K37" si="11">LOG(I31)</f>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31:L37" si="12">LOG(J31)</f>
+        <v>5.6531526735243025</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" cm="1">
+        <f t="array" ref="N31">TREND(L$30:L$35,K$30:K$35,M31)</f>
+        <v>5.5355741191599739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>15</v>
       </c>
@@ -2646,15 +2822,29 @@
         <v>381593</v>
       </c>
       <c r="C32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1760912590556813</v>
       </c>
       <c r="D32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5816003993411325</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>15</v>
+      </c>
+      <c r="J32">
+        <v>3141156</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="11"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="12"/>
+        <v>6.4970895054073576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>20</v>
       </c>
@@ -2662,15 +2852,29 @@
         <v>1232252</v>
       </c>
       <c r="C33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3010299956639813</v>
       </c>
       <c r="D33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0906995317066634</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>20</v>
+      </c>
+      <c r="J33">
+        <v>15352698</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="11"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="12"/>
+        <v>7.1861847070802876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2678,15 +2882,29 @@
         <v>3621470</v>
       </c>
       <c r="C34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3979400086720377</v>
       </c>
       <c r="D34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.5588848918870255</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>48078854</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="11"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="12"/>
+        <v>7.681954107343107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>30</v>
       </c>
@@ -2694,15 +2912,29 @@
         <v>7084367</v>
       </c>
       <c r="C35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4771212547196624</v>
       </c>
       <c r="D35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.8503010513811589</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>30</v>
+      </c>
+      <c r="J35">
+        <v>130814378</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="11"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="12"/>
+        <v>8.1166554805546767</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>40</v>
       </c>
@@ -2710,15 +2942,15 @@
         <v>26150238</v>
       </c>
       <c r="C36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6020599913279623</v>
       </c>
       <c r="D36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.4174756458463653</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>50</v>
       </c>
@@ -2726,20 +2958,23 @@
         <v>85077630</v>
       </c>
       <c r="C37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6989700043360187</v>
       </c>
       <c r="D37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.9298153832962974</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2749,8 +2984,17 @@
       <c r="D40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>5</v>
       </c>
@@ -2776,8 +3020,33 @@
         <f>F42-F41</f>
         <v>5.5236558887364682</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I41" s="2">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>0.16</v>
+      </c>
+      <c r="K41">
+        <f>LOG(I41)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="L41">
+        <f>LOG(J41)</f>
+        <v>-0.79588001734407521</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" cm="1">
+        <f t="array" ref="N41">TREND(L$41:L$46,K$41:K$46,M41)</f>
+        <v>-4.5998807334023137</v>
+      </c>
+      <c r="O41" s="1">
+        <f>N42-N41</f>
+        <v>5.5096302237905066</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>10</v>
       </c>
@@ -2785,11 +3054,11 @@
         <v>6.41</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:C46" si="9">LOG(A42)</f>
+        <f t="shared" ref="C42:C46" si="13">LOG(A42)</f>
         <v>1</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42:D46" si="10">LOG(B42)</f>
+        <f t="shared" ref="D42:D46" si="14">LOG(B42)</f>
         <v>0.80685802951881747</v>
       </c>
       <c r="E42">
@@ -2799,8 +3068,29 @@
         <f t="array" ref="F42">TREND(D$41:D$46,C$41:C$46,E42)</f>
         <v>0.70697669567288646</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I42" s="2">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>10.08</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K46" si="15">LOG(I42)</f>
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:L46" si="16">LOG(J42)</f>
+        <v>1.0034605321095065</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" cm="1">
+        <f t="array" ref="N42">TREND(L$41:L$46,K$41:K$46,M42)</f>
+        <v>0.90974949038819286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>15</v>
       </c>
@@ -2808,15 +3098,29 @@
         <v>43.78</v>
       </c>
       <c r="C43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1760912590556813</v>
       </c>
       <c r="D43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.641275757231913</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I43" s="2">
+        <v>15</v>
+      </c>
+      <c r="J43">
+        <v>70.84</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="15"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="16"/>
+        <v>1.8502785525180372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>20</v>
       </c>
@@ -2824,15 +3128,29 @@
         <v>230.73</v>
       </c>
       <c r="C44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3010299956639813</v>
       </c>
       <c r="D44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.3631040660746354</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I44" s="2">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>386.61</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="15"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="16"/>
+        <v>2.587273083237934</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>25</v>
       </c>
@@ -2840,15 +3158,29 @@
         <v>790.98</v>
       </c>
       <c r="C45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3979400086720377</v>
       </c>
       <c r="D45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.898165502461711</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I45" s="2">
+        <v>25</v>
+      </c>
+      <c r="J45">
+        <v>1176.9100000000001</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="15"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="16"/>
+        <v>3.0707432529897103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>30</v>
       </c>
@@ -2856,20 +3188,37 @@
         <v>2181.0300000000002</v>
       </c>
       <c r="C46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4771212547196624</v>
       </c>
       <c r="D46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.3386616393269128</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I46" s="2">
+        <v>30</v>
+      </c>
+      <c r="J46">
+        <v>3420.45</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="15"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="16"/>
+        <v>3.5340832463077669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2895,8 +3244,33 @@
         <f>F50-F49</f>
         <v>4.3130562504505088</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>0.15</v>
+      </c>
+      <c r="K49">
+        <f>LOG(I49)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="L49">
+        <f>LOG(J49)</f>
+        <v>-0.82390874094431876</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" cm="1">
+        <f t="array" ref="N49">TREND(L$49:L$54,K$49:K$54,M49)</f>
+        <v>-4.6498885089424169</v>
+      </c>
+      <c r="O49" s="1">
+        <f>N50-N49</f>
+        <v>5.5508557800601714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10</v>
       </c>
@@ -2904,11 +3278,11 @@
         <v>2.38</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:C56" si="11">LOG(A50)</f>
+        <f t="shared" ref="C50:C56" si="17">LOG(A50)</f>
         <v>1</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:D56" si="12">LOG(B50)</f>
+        <f t="shared" ref="D50:D56" si="18">LOG(B50)</f>
         <v>0.37657695705651195</v>
       </c>
       <c r="E50">
@@ -2918,8 +3292,29 @@
         <f t="array" ref="F50">TREND(D$49:D$56,C$49:C$56,E50)</f>
         <v>0.26457828254736881</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>10.02</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ref="K50:K56" si="19">LOG(I50)</f>
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ref="L50:L56" si="20">LOG(J50)</f>
+        <v>1.0008677215312269</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50" cm="1">
+        <f t="array" ref="N50">TREND(L$49:L$54,K$49:K$54,M50)</f>
+        <v>0.90096727111775454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>15</v>
       </c>
@@ -2927,15 +3322,29 @@
         <v>7.67</v>
       </c>
       <c r="C51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.1760912590556813</v>
       </c>
       <c r="D51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.88479536394898095</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>15</v>
+      </c>
+      <c r="J51">
+        <v>71.41</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="19"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="20"/>
+        <v>1.8537590330747686</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>20</v>
       </c>
@@ -2943,15 +3352,29 @@
         <v>27.31</v>
       </c>
       <c r="C52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.3010299956639813</v>
       </c>
       <c r="D52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1.4363217001397333</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>20</v>
+      </c>
+      <c r="J52">
+        <v>391.37</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="19"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="20"/>
+        <v>2.5925875322729297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>25</v>
       </c>
@@ -2959,15 +3382,29 @@
         <v>83.6</v>
       </c>
       <c r="C53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.3979400086720377</v>
       </c>
       <c r="D53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1.9222062774390163</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>25</v>
+      </c>
+      <c r="J53">
+        <v>1217.54</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="19"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="20"/>
+        <v>3.0854832380541581</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>30</v>
       </c>
@@ -2975,15 +3412,29 @@
         <v>180.54</v>
       </c>
       <c r="C54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.4771212547196624</v>
       </c>
       <c r="D54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2.2565734381237244</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>30</v>
+      </c>
+      <c r="J54">
+        <v>3402.6</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="19"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="20"/>
+        <v>3.5318108976696423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>40</v>
       </c>
@@ -2991,15 +3442,15 @@
         <v>762.6</v>
       </c>
       <c r="C55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.6020599913279623</v>
       </c>
       <c r="D55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2.8822968009376519</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>50</v>
       </c>
@@ -3007,20 +3458,23 @@
         <v>2894.4</v>
       </c>
       <c r="C56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.6989700043360187</v>
       </c>
       <c r="D56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3.4615585495157384</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3030,8 +3484,17 @@
       <c r="D59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" t="s">
+        <v>2</v>
+      </c>
+      <c r="L59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>5</v>
       </c>
@@ -3057,8 +3520,33 @@
         <f>F61-F60</f>
         <v>5.8616845957941663</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I60" s="2">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>0.16</v>
+      </c>
+      <c r="K60">
+        <f>LOG(I60)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="L60">
+        <f>LOG(J60)</f>
+        <v>-0.79588001734407521</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" cm="1">
+        <f t="array" ref="N60">TREND(L$60:L$65,K$60:K$65,M60)</f>
+        <v>-4.8602665310354087</v>
+      </c>
+      <c r="O60" s="1">
+        <f>N61-N60</f>
+        <v>5.8270965387818405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>10</v>
       </c>
@@ -3066,11 +3554,11 @@
         <v>5.04</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:C65" si="13">LOG(A61)</f>
+        <f t="shared" ref="C61:C65" si="21">LOG(A61)</f>
         <v>1</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61:D65" si="14">LOG(B61)</f>
+        <f t="shared" ref="D61:D65" si="22">LOG(B61)</f>
         <v>0.70243053644552533</v>
       </c>
       <c r="E61">
@@ -3080,8 +3568,29 @@
         <f t="array" ref="F61">TREND(D$60:D$65,C$60:C$65,E61)</f>
         <v>0.63633306788359789</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I61" s="2">
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <v>11.6</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ref="K61:K65" si="23">LOG(I61)</f>
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <f t="shared" ref="L61:L65" si="24">LOG(J61)</f>
+        <v>1.0644579892269184</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" cm="1">
+        <f t="array" ref="N61">TREND(L$60:L$65,K$60:K$65,M61)</f>
+        <v>0.9668300077464318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>15</v>
       </c>
@@ -3089,15 +3598,29 @@
         <v>34.700000000000003</v>
       </c>
       <c r="C62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.1760912590556813</v>
       </c>
       <c r="D62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.5403294747908738</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I62" s="2">
+        <v>15</v>
+      </c>
+      <c r="J62">
+        <v>79.739999999999995</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="23"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="24"/>
+        <v>1.9016762313263755</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>20</v>
       </c>
@@ -3105,15 +3628,29 @@
         <v>207.94</v>
       </c>
       <c r="C63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.3010299956639813</v>
       </c>
       <c r="D63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.317938039636056</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I63" s="2">
+        <v>20</v>
+      </c>
+      <c r="J63">
+        <v>466.13</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="23"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="24"/>
+        <v>2.6685070549068013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>25</v>
       </c>
@@ -3121,15 +3658,29 @@
         <v>860.73</v>
       </c>
       <c r="C64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.3979400086720377</v>
       </c>
       <c r="D64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.9348669401881544</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I64" s="2">
+        <v>25</v>
+      </c>
+      <c r="J64">
+        <v>1759.07</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="23"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="24"/>
+        <v>3.245283122009393</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>30</v>
       </c>
@@ -3137,20 +3688,37 @@
         <v>3809.5</v>
       </c>
       <c r="C65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.4771212547196624</v>
       </c>
       <c r="D65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3.5808679779090302</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I65" s="2">
+        <v>30</v>
+      </c>
+      <c r="J65">
+        <v>6951.89</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="23"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="24"/>
+        <v>3.8421028916381128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5</v>
       </c>
@@ -3176,8 +3744,33 @@
         <f>F69-F68</f>
         <v>4.3095282430756994</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>0.15</v>
+      </c>
+      <c r="K68">
+        <f>LOG(I68)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="L68">
+        <f>LOG(J68)</f>
+        <v>-0.82390874094431876</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" cm="1">
+        <f t="array" ref="N68">TREND(L$68:L$73,K$68:K$73,M68)</f>
+        <v>-4.9202003433478483</v>
+      </c>
+      <c r="O68" s="1">
+        <f>N69-N68</f>
+        <v>5.8786372918382881</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>10</v>
       </c>
@@ -3185,11 +3778,11 @@
         <v>1.73</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C75" si="15">LOG(A69)</f>
+        <f t="shared" ref="C69:C75" si="25">LOG(A69)</f>
         <v>1</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D75" si="16">LOG(B69)</f>
+        <f t="shared" ref="D69:D75" si="26">LOG(B69)</f>
         <v>0.2380461031287954</v>
       </c>
       <c r="E69">
@@ -3199,8 +3792,29 @@
         <f t="array" ref="F69">TREND(D$68:D$75,C$68:C$75,E69)</f>
         <v>0.11311499269952741</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69">
+        <v>11.34</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ref="K69:K75" si="27">LOG(I69)</f>
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <f t="shared" ref="L69:L75" si="28">LOG(J69)</f>
+        <v>1.0546130545568877</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" cm="1">
+        <f t="array" ref="N69">TREND(L$68:L$73,K$68:K$73,M69)</f>
+        <v>0.95843694849043981</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>15</v>
       </c>
@@ -3208,15 +3822,29 @@
         <v>5.41</v>
       </c>
       <c r="C70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.1760912590556813</v>
       </c>
       <c r="D70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.73319726510656946</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>15</v>
+      </c>
+      <c r="J70">
+        <v>82.22</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="27"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="28"/>
+        <v>1.9149774724443309</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>20</v>
       </c>
@@ -3224,15 +3852,29 @@
         <v>17.86</v>
       </c>
       <c r="C71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.3010299956639813</v>
       </c>
       <c r="D71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.2518814545525276</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>20</v>
+      </c>
+      <c r="J71">
+        <v>466.86</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="27"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="28"/>
+        <v>2.6691866656989545</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>25</v>
       </c>
@@ -3240,15 +3882,29 @@
         <v>56.64</v>
       </c>
       <c r="C72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.3979400086720377</v>
       </c>
       <c r="D72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.7531232446817127</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>25</v>
+      </c>
+      <c r="J72">
+        <v>1874.98</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="27"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="28"/>
+        <v>3.2729966395645573</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>30</v>
       </c>
@@ -3256,15 +3912,29 @@
         <v>119.25</v>
       </c>
       <c r="C73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4771212547196624</v>
       </c>
       <c r="D73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.0764583877121514</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>30</v>
+      </c>
+      <c r="J73">
+        <v>6951.86</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="27"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="28"/>
+        <v>3.8421010174912884</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>40</v>
       </c>
@@ -3272,15 +3942,15 @@
         <v>563.79999999999995</v>
       </c>
       <c r="C74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.6020599913279623</v>
       </c>
       <c r="D74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.7511250715355833</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>50</v>
       </c>
@@ -3288,20 +3958,20 @@
         <v>2161.6999999999998</v>
       </c>
       <c r="C75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.6989700043360187</v>
       </c>
       <c r="D75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.3347954225567737</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>7</v>
       </c>
@@ -3316,7 +3986,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>5</v>
       </c>
@@ -3341,7 +4011,7 @@
         <v>5.5860806996727694</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>10</v>
       </c>

--- a/qbenchmarks/analysis/games-analysis.xlsx
+++ b/qbenchmarks/analysis/games-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/pgbdd/qbenchmarks/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C40421-4BEB-FA44-BC78-C0CC1D20F4F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB3A094-8FEE-E64F-B13E-E14B80C8F08A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="1380" windowWidth="31020" windowHeight="24320" activeTab="4" xr2:uid="{583F3F6E-F0B6-1E45-809E-4DA5455BF68E}"/>
+    <workbookView xWindow="6100" yWindow="1520" windowWidth="31020" windowHeight="24320" activeTab="4" xr2:uid="{583F3F6E-F0B6-1E45-809E-4DA5455BF68E}"/>
   </bookViews>
   <sheets>
     <sheet name="NIM F4" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="18">
   <si>
     <t>N</t>
   </si>
@@ -2170,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9015DD3F-8673-2F46-8038-D04A657C1A18}">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="R79" sqref="R79"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2213,12 +2213,12 @@
         <v>0</v>
       </c>
       <c r="F3" cm="1">
-        <f t="array" ref="F3">TREND(D$3:D$8,C$3:C$8,E3)</f>
-        <v>5.4616795897330483E-2</v>
+        <f t="array" ref="F3">TREND(D$3:D$11,C$3:C$11,E3)</f>
+        <v>7.8954559357127252E-2</v>
       </c>
       <c r="G3" s="1">
         <f>F4-F3</f>
-        <v>2.7094971370295666</v>
+        <v>2.6853949252077407</v>
       </c>
       <c r="I3" s="2"/>
       <c r="O3" s="1"/>
@@ -2231,7 +2231,7 @@
         <v>666</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:D8" si="0">LOG(A4)</f>
+        <f t="shared" ref="C4:D11" si="0">LOG(A4)</f>
         <v>1</v>
       </c>
       <c r="D4">
@@ -2242,8 +2242,8 @@
         <v>1</v>
       </c>
       <c r="F4" cm="1">
-        <f t="array" ref="F4">TREND(D$3:D$8,C$3:C$8,E4)</f>
-        <v>2.7641139329268971</v>
+        <f t="array" ref="F4">TREND(D$3:D$11,C$3:C$11,E4)</f>
+        <v>2.764349484564868</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -2306,1943 +2306,2620 @@
         <v>11166</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C8:C9" si="1">LOG(A8)</f>
         <v>1.4771212547196624</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D8:D9" si="2">LOG(B8)</f>
         <v>4.0478976235144106</v>
       </c>
       <c r="I8" s="2"/>
     </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2">
+        <v>16308</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>4.2124007027801191</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2">
+        <v>24010</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C11" si="3">LOG(A10)</f>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D11" si="4">LOG(B10)</f>
+        <v>4.3803921600570277</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2">
+        <v>32231</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>1.6532125137753437</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>4.5082737801553572</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>81</v>
-      </c>
-      <c r="C11">
-        <f>LOG(A11)</f>
-        <v>0.69897000433601886</v>
-      </c>
-      <c r="D11">
-        <f>LOG(B11)</f>
-        <v>1.9084850188786497</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">TREND(D$11:D$18,C$11:C$18,E11)</f>
-        <v>6.2877729573054264E-2</v>
-      </c>
-      <c r="G11" s="1">
-        <f>F12-F11</f>
-        <v>2.6995917555829618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>664</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:C16" si="1">LOG(A12)</f>
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D16" si="2">LOG(B12)</f>
-        <v>2.8221680793680175</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">TREND(D$11:D$18,C$11:C$18,E12)</f>
-        <v>2.7624694851560161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>1728</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>1.1760912590556813</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>3.2375437381428744</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>3885</v>
+        <v>81</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
-        <v>1.3010299956639813</v>
+        <f>LOG(A14)</f>
+        <v>0.69897000433601886</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>3.5893910231369333</v>
+        <f>LOG(B14)</f>
+        <v>1.9084850188786497</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">TREND(D$14:D$23,C$14:C$23,E14)</f>
+        <v>7.2321526986729001E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <f>F15-F14</f>
+        <v>2.6899305675734615</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>6631</v>
+        <v>664</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>1.3979400086720377</v>
+        <f t="shared" ref="C15:C20" si="5">LOG(A15)</f>
+        <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>3.821579027912009</v>
+        <f t="shared" ref="D15:D20" si="6">LOG(B15)</f>
+        <v>2.8221680793680175</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">TREND(D$14:D$23,C$14:C$23,E15)</f>
+        <v>2.7622520945601905</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>11159</v>
+        <v>1728</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>1.4771212547196624</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>4.0476252775817834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>24010</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:C18" si="3">LOG(A17)</f>
-        <v>1.6020599913279623</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D18" si="4">LOG(B17)</f>
-        <v>4.3803921600570277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>50</v>
-      </c>
-      <c r="B18">
-        <v>43904</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="3"/>
-        <v>1.6989700043360187</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="4"/>
-        <v>4.6425040896906387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2">
-        <v>5451</v>
-      </c>
-      <c r="C22">
-        <f>LOG(A22)</f>
-        <v>0.69897000433601886</v>
-      </c>
-      <c r="D22">
-        <f>LOG(B22)</f>
-        <v>3.7364761820276966</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">TREND(D$22:D$27,C$22:C$27,E22)</f>
-        <v>3.4850255563582344E-2</v>
-      </c>
-      <c r="G22" s="1">
-        <f>F23-F22</f>
-        <v>5.3830750048722189</v>
-      </c>
-      <c r="I22" s="2">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>7015</v>
-      </c>
-      <c r="K22">
-        <f>LOG(I22)</f>
-        <v>0.69897000433601886</v>
-      </c>
-      <c r="L22">
-        <f>LOG(J22)</f>
-        <v>3.8460276753643785</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" cm="1">
-        <f t="array" ref="N22">TREND(L$22:L$27,K$22:K$27,M22)</f>
-        <v>0.12355352012406851</v>
-      </c>
-      <c r="O22" s="1">
-        <f>N23-N22</f>
-        <v>5.4238074902825879</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2">
-        <v>336886</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:C27" si="5">LOG(A23)</f>
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23:D27" si="6">LOG(B23)</f>
-        <v>5.5274829633435987</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">TREND(D$22:D$27,C$22:C$27,E23)</f>
-        <v>5.4179252604358012</v>
-      </c>
-      <c r="I23" s="2">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>463779</v>
-      </c>
-      <c r="K23">
-        <f t="shared" ref="K23:K27" si="7">LOG(I23)</f>
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <f t="shared" ref="L23:L27" si="8">LOG(J23)</f>
-        <v>5.666311079811674</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23" cm="1">
-        <f t="array" ref="N23">TREND(L$22:L$27,K$22:K$27,M23)</f>
-        <v>5.5473610104066564</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2235543</v>
-      </c>
-      <c r="C24">
         <f t="shared" si="5"/>
         <v>1.1760912590556813</v>
       </c>
-      <c r="D24">
+      <c r="D16">
         <f t="shared" si="6"/>
-        <v>6.3493830278086669</v>
-      </c>
-      <c r="I24" s="2">
-        <v>15</v>
-      </c>
-      <c r="J24">
-        <v>3092438</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="7"/>
-        <v>1.1760912590556813</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="8"/>
-        <v>6.4903010012590245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+        <v>3.2375437381428744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>20</v>
       </c>
-      <c r="B25" s="2">
-        <v>11293078</v>
-      </c>
-      <c r="C25">
+      <c r="B17">
+        <v>3885</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="5"/>
         <v>1.3010299956639813</v>
       </c>
-      <c r="D25">
+      <c r="D17">
         <f t="shared" si="6"/>
-        <v>7.0528123277733075</v>
-      </c>
-      <c r="I25" s="2">
-        <v>20</v>
-      </c>
-      <c r="J25">
-        <v>15738321</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="7"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="8"/>
-        <v>7.1969583989678334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+        <v>3.5893910231369333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
-        <v>33860508</v>
-      </c>
-      <c r="C26">
+      <c r="B18">
+        <v>6631</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="5"/>
         <v>1.3979400086720377</v>
       </c>
-      <c r="D26">
+      <c r="D18">
         <f t="shared" si="6"/>
-        <v>7.5296934694238864</v>
-      </c>
-      <c r="I26" s="2">
-        <v>25</v>
-      </c>
-      <c r="J26">
-        <v>46970338</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="7"/>
-        <v>1.3979400086720377</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="8"/>
-        <v>7.6718236853909714</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+        <v>3.821579027912009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>30</v>
       </c>
-      <c r="B27" s="2">
-        <v>93354759</v>
-      </c>
-      <c r="C27">
+      <c r="B19">
+        <v>11159</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="5"/>
         <v>1.4771212547196624</v>
       </c>
+      <c r="D19">
+        <f t="shared" si="6"/>
+        <v>4.0476252775817834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>16308</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="5"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>4.2124007027801191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>24000</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C23" si="7">LOG(A21)</f>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D23" si="8">LOG(B21)</f>
+        <v>4.3802112417116064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>32242</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="7"/>
+        <v>1.6532125137753437</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="8"/>
+        <v>4.5084219736424691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>43904</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="7"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="8"/>
+        <v>4.6425040896906387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5238</v>
+      </c>
+      <c r="C27">
+        <f>LOG(A27)</f>
+        <v>0.69897000433601886</v>
+      </c>
       <c r="D27">
-        <f t="shared" si="6"/>
-        <v>7.9701364621325324</v>
-      </c>
-      <c r="I27" s="2">
+        <f>LOG(B27)</f>
+        <v>3.7191654940892134</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">TREND(D$27:D$35,C$27:C$35,E27)</f>
+        <v>0.57538680830506372</v>
+      </c>
+      <c r="G27" s="1">
+        <f>F28-F27</f>
+        <v>4.3712888651022803</v>
+      </c>
+      <c r="H27" s="1">
+        <f>G27/G$3</f>
+        <v>1.6278011193322413</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>6710</v>
+      </c>
+      <c r="K27">
+        <f>LOG(I27)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="L27">
+        <f>LOG(J27)</f>
+        <v>3.8267225201689921</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" cm="1">
+        <f t="array" ref="N27">TREND(L$27:L$34,K$27:K$34,M27)</f>
+        <v>0.6019663469354084</v>
+      </c>
+      <c r="O27" s="1">
+        <f>N28-N27</f>
+        <v>4.5093083036928601</v>
+      </c>
+      <c r="P27" s="1">
+        <f>O27/G$3</f>
+        <v>1.6791974474086051</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2">
+        <v>90924</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C35" si="9">LOG(A28)</f>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D35" si="10">LOG(B28)</f>
+        <v>4.9586785332970535</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">TREND(D$27:D$35,C$27:C$35,E28)</f>
+        <v>4.946675673407344</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>132138</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28:K31" si="11">LOG(I28)</f>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L31" si="12">LOG(J28)</f>
+        <v>5.1210277291747577</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" cm="1">
+        <f t="array" ref="N28">TREND(L$27:L$34,K$27:K$34,M28)</f>
+        <v>5.1112746506282685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2">
+        <v>406161</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="9"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="10"/>
+        <v>5.6086982196646877</v>
+      </c>
+      <c r="I29">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>628392</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="11"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="12"/>
+        <v>5.7982306474405467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1516756</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="9"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="10"/>
+        <v>6.1809157216063531</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <v>2572139</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="11"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="12"/>
+        <v>6.4102944344317416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4230831</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="9"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="10"/>
+        <v>6.6264256778405564</v>
+      </c>
+      <c r="I31">
+        <v>25</v>
+      </c>
+      <c r="J31">
+        <v>7098146</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="11"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="12"/>
+        <v>6.8511449279986483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="J27">
-        <v>130014906</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="7"/>
-        <v>1.4771212547196624</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="8"/>
-        <v>8.113993146325603</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>5937</v>
-      </c>
-      <c r="C30">
-        <f>LOG(A30)</f>
-        <v>0.69897000433601886</v>
-      </c>
-      <c r="D30">
-        <f>LOG(B30)</f>
-        <v>3.7735670489260587</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">TREND(D$30:D$37,C$30:C$37,E30)</f>
-        <v>0.91792037316895669</v>
-      </c>
-      <c r="G30" s="1">
-        <f>F31-F30</f>
-        <v>4.0532311867130435</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>6616</v>
-      </c>
-      <c r="K30">
-        <f>LOG(I30)</f>
-        <v>0.69897000433601886</v>
-      </c>
-      <c r="L30">
-        <f>LOG(J30)</f>
-        <v>3.8205954965444904</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30" cm="1">
-        <f t="array" ref="N30">TREND(L$30:L$35,K$30:K$35,M30)</f>
-        <v>7.2820491242174157E-2</v>
-      </c>
-      <c r="O30" s="1">
-        <f>N31-N30</f>
-        <v>5.4627536279177997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>126127</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:C37" si="9">LOG(A31)</f>
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ref="D31:D37" si="10">LOG(B31)</f>
-        <v>5.1008080659214956</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">TREND(D$30:D$37,C$30:C$37,E31)</f>
-        <v>4.9711515598820002</v>
-      </c>
-      <c r="I31">
-        <v>10</v>
-      </c>
-      <c r="J31">
-        <v>449938</v>
-      </c>
-      <c r="K31">
-        <f t="shared" ref="K31:K37" si="11">LOG(I31)</f>
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <f t="shared" ref="L31:L37" si="12">LOG(J31)</f>
-        <v>5.6531526735243025</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31" cm="1">
-        <f t="array" ref="N31">TREND(L$30:L$35,K$30:K$35,M31)</f>
-        <v>5.5355741191599739</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <v>381593</v>
+      <c r="B32" s="2">
+        <v>10466168</v>
       </c>
       <c r="C32">
         <f t="shared" si="9"/>
-        <v>1.1760912590556813</v>
+        <v>1.4771212547196624</v>
       </c>
       <c r="D32">
         <f t="shared" si="10"/>
-        <v>5.5816003993411325</v>
+        <v>7.0197877016330921</v>
       </c>
       <c r="I32">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J32">
-        <v>3141156</v>
+        <v>18496226</v>
       </c>
       <c r="K32">
-        <f t="shared" si="11"/>
-        <v>1.1760912590556813</v>
+        <f t="shared" ref="K32:K34" si="13">LOG(I32)</f>
+        <v>1.4771212547196624</v>
       </c>
       <c r="L32">
-        <f t="shared" si="12"/>
-        <v>6.4970895054073576</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>20</v>
-      </c>
-      <c r="B33">
-        <v>1232252</v>
+        <f t="shared" ref="L32:L34" si="14">LOG(J32)</f>
+        <v>7.2670831232906767</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2">
+        <v>21892951</v>
       </c>
       <c r="C33">
         <f t="shared" si="9"/>
-        <v>1.3010299956639813</v>
+        <v>1.5440680443502757</v>
       </c>
       <c r="D33">
         <f t="shared" si="10"/>
-        <v>6.0906995317066634</v>
+        <v>7.3403043050415331</v>
       </c>
       <c r="I33">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J33">
-        <v>15352698</v>
+        <v>39902054</v>
       </c>
       <c r="K33">
-        <f t="shared" si="11"/>
-        <v>1.3010299956639813</v>
+        <f t="shared" si="13"/>
+        <v>1.5440680443502757</v>
       </c>
       <c r="L33">
-        <f t="shared" si="12"/>
-        <v>7.1861847070802876</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>25</v>
-      </c>
-      <c r="B34">
-        <v>3621470</v>
+        <f t="shared" si="14"/>
+        <v>7.6009952520252462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44874662</v>
       </c>
       <c r="C34">
         <f t="shared" si="9"/>
-        <v>1.3979400086720377</v>
+        <v>1.6020599913279623</v>
       </c>
       <c r="D34">
         <f t="shared" si="10"/>
-        <v>6.5588848918870255</v>
+        <v>7.6520011904535021</v>
       </c>
       <c r="I34">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J34">
-        <v>48078854</v>
+        <v>83736352</v>
       </c>
       <c r="K34">
-        <f t="shared" si="11"/>
-        <v>1.3979400086720377</v>
+        <f t="shared" si="13"/>
+        <v>1.6020599913279623</v>
       </c>
       <c r="L34">
-        <f t="shared" si="12"/>
-        <v>7.681954107343107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>30</v>
-      </c>
-      <c r="B35">
-        <v>7084367</v>
+        <f t="shared" si="14"/>
+        <v>7.9229140367942863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>45</v>
+      </c>
+      <c r="B35" s="2">
+        <v>74891554</v>
       </c>
       <c r="C35">
         <f t="shared" si="9"/>
-        <v>1.4771212547196624</v>
+        <v>1.6532125137753437</v>
       </c>
       <c r="D35">
         <f t="shared" si="10"/>
-        <v>6.8503010513811589</v>
-      </c>
-      <c r="I35">
-        <v>30</v>
-      </c>
-      <c r="J35">
-        <v>130814378</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="11"/>
-        <v>1.4771212547196624</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="12"/>
-        <v>8.1166554805546767</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>26150238</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="9"/>
-        <v>1.6020599913279623</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="10"/>
-        <v>7.4174756458463653</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>50</v>
-      </c>
-      <c r="B37">
-        <v>85077630</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="9"/>
-        <v>1.6989700043360187</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="10"/>
-        <v>7.9298153832962974</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" t="s">
-        <v>2</v>
-      </c>
-      <c r="L40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+        <v>7.8744328422919736</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>5</v>
       </c>
-      <c r="B41">
-        <v>0.1</v>
-      </c>
-      <c r="C41">
-        <f>LOG(A41)</f>
+      <c r="B38">
+        <v>5937</v>
+      </c>
+      <c r="C38">
+        <f>LOG(A38)</f>
         <v>0.69897000433601886</v>
       </c>
-      <c r="D41">
-        <f>LOG(B41)</f>
-        <v>-1</v>
-      </c>
-      <c r="E41">
+      <c r="D38">
+        <f>LOG(B38)</f>
+        <v>3.7735670489260587</v>
+      </c>
+      <c r="E38">
         <v>0</v>
       </c>
-      <c r="F41" cm="1">
-        <f t="array" ref="F41">TREND(D$41:D$46,C$41:C$46,E41)</f>
-        <v>-4.8166791930635817</v>
-      </c>
-      <c r="G41" s="1">
-        <f>F42-F41</f>
-        <v>5.5236558887364682</v>
-      </c>
-      <c r="I41" s="2">
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">TREND(D$38:D$47,C$38:C$47,E38)</f>
+        <v>0.924186642692856</v>
+      </c>
+      <c r="G38" s="1">
+        <f>F39-F38</f>
+        <v>4.0448902975618646</v>
+      </c>
+      <c r="H38" s="1">
+        <f>G38/G$14</f>
+        <v>1.5037155034119294</v>
+      </c>
+      <c r="I38">
         <v>5</v>
       </c>
-      <c r="J41">
-        <v>0.16</v>
-      </c>
-      <c r="K41">
-        <f>LOG(I41)</f>
+      <c r="J38">
+        <v>6052</v>
+      </c>
+      <c r="K38">
+        <f>LOG(I38)</f>
         <v>0.69897000433601886</v>
       </c>
-      <c r="L41">
-        <f>LOG(J41)</f>
-        <v>-0.79588001734407521</v>
-      </c>
-      <c r="M41">
+      <c r="L38">
+        <f>LOG(J38)</f>
+        <v>3.781898919351149</v>
+      </c>
+      <c r="M38">
         <v>0</v>
       </c>
-      <c r="N41" cm="1">
-        <f t="array" ref="N41">TREND(L$41:L$46,K$41:K$46,M41)</f>
-        <v>-4.5998807334023137</v>
-      </c>
-      <c r="O41" s="1">
-        <f>N42-N41</f>
-        <v>5.5096302237905066</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="N38" cm="1">
+        <f t="array" ref="N38">TREND(L$38:L$45,K$38:K$45,M38)</f>
+        <v>0.54715670416245921</v>
+      </c>
+      <c r="O38" s="1">
+        <f>N39-N38</f>
+        <v>4.5480794711938772</v>
+      </c>
+      <c r="P38" s="1">
+        <f>O38/G$14</f>
+        <v>1.6907795041329334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>10</v>
       </c>
-      <c r="B42">
-        <v>6.41</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:C46" si="13">LOG(A42)</f>
+      <c r="B39">
+        <v>126127</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C47" si="15">LOG(A39)</f>
         <v>1</v>
       </c>
-      <c r="D42">
-        <f t="shared" ref="D42:D46" si="14">LOG(B42)</f>
-        <v>0.80685802951881747</v>
-      </c>
-      <c r="E42">
+      <c r="D39">
+        <f t="shared" ref="D39:D47" si="16">LOG(B39)</f>
+        <v>5.1008080659214956</v>
+      </c>
+      <c r="E39">
         <v>1</v>
       </c>
-      <c r="F42" cm="1">
-        <f t="array" ref="F42">TREND(D$41:D$46,C$41:C$46,E42)</f>
-        <v>0.70697669567288646</v>
-      </c>
-      <c r="I42" s="2">
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">TREND(D$38:D$47,C$38:C$47,E39)</f>
+        <v>4.9690769402547206</v>
+      </c>
+      <c r="I39">
         <v>10</v>
       </c>
-      <c r="J42">
-        <v>10.08</v>
-      </c>
-      <c r="K42">
-        <f t="shared" ref="K42:K46" si="15">LOG(I42)</f>
+      <c r="J39">
+        <v>132403</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:K45" si="17">LOG(I39)</f>
         <v>1</v>
       </c>
-      <c r="L42">
-        <f t="shared" ref="L42:L46" si="16">LOG(J42)</f>
-        <v>1.0034605321095065</v>
-      </c>
-      <c r="M42">
+      <c r="L39">
+        <f t="shared" ref="L39:L45" si="18">LOG(J39)</f>
+        <v>5.1218978255016054</v>
+      </c>
+      <c r="M39">
         <v>1</v>
       </c>
-      <c r="N42" cm="1">
-        <f t="array" ref="N42">TREND(L$41:L$46,K$41:K$46,M42)</f>
-        <v>0.90974949038819286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="N39" cm="1">
+        <f t="array" ref="N39">TREND(L$38:L$45,K$38:K$45,M39)</f>
+        <v>5.0952361753563364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>15</v>
       </c>
-      <c r="B43">
-        <v>43.78</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="13"/>
-        <v>1.1760912590556813</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="14"/>
-        <v>1.641275757231913</v>
-      </c>
-      <c r="I43" s="2">
-        <v>15</v>
-      </c>
-      <c r="J43">
-        <v>70.84</v>
-      </c>
-      <c r="K43">
+      <c r="B40">
+        <v>381593</v>
+      </c>
+      <c r="C40">
         <f t="shared" si="15"/>
         <v>1.1760912590556813</v>
       </c>
-      <c r="L43">
+      <c r="D40">
         <f t="shared" si="16"/>
-        <v>1.8502785525180372</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+        <v>5.5816003993411325</v>
+      </c>
+      <c r="I40">
+        <v>15</v>
+      </c>
+      <c r="J40">
+        <v>629530</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="17"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="18"/>
+        <v>5.7990164310666144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>20</v>
       </c>
-      <c r="B44">
-        <v>230.73</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="13"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="14"/>
-        <v>2.3631040660746354</v>
-      </c>
-      <c r="I44" s="2">
-        <v>20</v>
-      </c>
-      <c r="J44">
-        <v>386.61</v>
-      </c>
-      <c r="K44">
+      <c r="B41">
+        <v>1232252</v>
+      </c>
+      <c r="C41">
         <f t="shared" si="15"/>
         <v>1.3010299956639813</v>
       </c>
-      <c r="L44">
+      <c r="D41">
         <f t="shared" si="16"/>
-        <v>2.587273083237934</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+        <v>6.0906995317066634</v>
+      </c>
+      <c r="I41">
+        <v>20</v>
+      </c>
+      <c r="J41">
+        <v>2580284</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="17"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="18"/>
+        <v>6.411667509391485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>25</v>
       </c>
-      <c r="B45">
-        <v>790.98</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="13"/>
-        <v>1.3979400086720377</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="14"/>
-        <v>2.898165502461711</v>
-      </c>
-      <c r="I45" s="2">
-        <v>25</v>
-      </c>
-      <c r="J45">
-        <v>1176.9100000000001</v>
-      </c>
-      <c r="K45">
+      <c r="B42">
+        <v>3621470</v>
+      </c>
+      <c r="C42">
         <f t="shared" si="15"/>
         <v>1.3979400086720377</v>
       </c>
-      <c r="L45">
+      <c r="D42">
         <f t="shared" si="16"/>
-        <v>3.0707432529897103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+        <v>6.5588848918870255</v>
+      </c>
+      <c r="I42">
+        <v>25</v>
+      </c>
+      <c r="J42">
+        <v>7083515</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="17"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="18"/>
+        <v>6.8502488178999608</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>30</v>
       </c>
-      <c r="B46">
-        <v>2181.0300000000002</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="13"/>
-        <v>1.4771212547196624</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="14"/>
-        <v>3.3386616393269128</v>
-      </c>
-      <c r="I46" s="2">
-        <v>30</v>
-      </c>
-      <c r="J46">
-        <v>3420.45</v>
-      </c>
-      <c r="K46">
+      <c r="B43">
+        <v>7084367</v>
+      </c>
+      <c r="C43">
         <f t="shared" si="15"/>
         <v>1.4771212547196624</v>
       </c>
-      <c r="L46">
+      <c r="D43">
         <f t="shared" si="16"/>
-        <v>3.5340832463077669</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" t="s">
-        <v>17</v>
+        <v>6.8503010513811589</v>
+      </c>
+      <c r="I43">
+        <v>30</v>
+      </c>
+      <c r="J43">
+        <v>18464645</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="17"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="18"/>
+        <v>7.2663409623513004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>12837762</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="15"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="16"/>
+        <v>7.1084893200127857</v>
+      </c>
+      <c r="I44">
+        <v>35</v>
+      </c>
+      <c r="J44">
+        <v>39966528</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="17"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="18"/>
+        <v>7.6016964215666931</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>26150238</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="15"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="16"/>
+        <v>7.4174756458463653</v>
+      </c>
+      <c r="I45">
+        <v>40</v>
+      </c>
+      <c r="J45">
+        <v>83662168</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="17"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="18"/>
+        <v>7.9225291145864372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>43282947</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="15"/>
+        <v>1.6532125137753437</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="16"/>
+        <v>7.6363168228532761</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>85077630</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="15"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="16"/>
+        <v>7.9298153832962974</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>0.11</v>
-      </c>
-      <c r="C49">
-        <f>LOG(A49)</f>
-        <v>0.69897000433601886</v>
-      </c>
-      <c r="D49">
-        <f>LOG(B49)</f>
-        <v>-0.95860731484177497</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" cm="1">
-        <f t="array" ref="F49">TREND(D$49:D$56,C$49:C$56,E49)</f>
-        <v>-4.04847796790314</v>
-      </c>
-      <c r="G49" s="1">
-        <f>F50-F49</f>
-        <v>4.3130562504505088</v>
-      </c>
-      <c r="I49">
-        <v>5</v>
-      </c>
-      <c r="J49">
-        <v>0.15</v>
-      </c>
-      <c r="K49">
-        <f>LOG(I49)</f>
-        <v>0.69897000433601886</v>
-      </c>
-      <c r="L49">
-        <f>LOG(J49)</f>
-        <v>-0.82390874094431876</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" cm="1">
-        <f t="array" ref="N49">TREND(L$49:L$54,K$49:K$54,M49)</f>
-        <v>-4.6498885089424169</v>
-      </c>
-      <c r="O49" s="1">
-        <f>N50-N49</f>
-        <v>5.5508557800601714</v>
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>10</v>
-      </c>
-      <c r="B50">
-        <v>2.38</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ref="C50:C56" si="17">LOG(A50)</f>
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ref="D50:D56" si="18">LOG(B50)</f>
-        <v>0.37657695705651195</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" cm="1">
-        <f t="array" ref="F50">TREND(D$49:D$56,C$49:C$56,E50)</f>
-        <v>0.26457828254736881</v>
-      </c>
-      <c r="I50">
-        <v>10</v>
-      </c>
-      <c r="J50">
-        <v>10.02</v>
-      </c>
-      <c r="K50">
-        <f t="shared" ref="K50:K56" si="19">LOG(I50)</f>
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <f t="shared" ref="L50:L56" si="20">LOG(J50)</f>
-        <v>1.0008677215312269</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50" cm="1">
-        <f t="array" ref="N50">TREND(L$49:L$54,K$49:K$54,M50)</f>
-        <v>0.90096727111775454</v>
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>0.1</v>
+      </c>
+      <c r="C51">
+        <f>LOG(A51)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D51">
+        <f>LOG(B51)</f>
+        <v>-1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51">TREND(D$51:D$59,C$51:C$59,E51)</f>
+        <v>-4.5614655568564375</v>
+      </c>
+      <c r="G51" s="1">
+        <f>F52-F51</f>
+        <v>4.8291590497477817</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>0.15</v>
+      </c>
+      <c r="K51">
+        <f>LOG(I51)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="L51">
+        <f>LOG(J51)</f>
+        <v>-0.82390874094431876</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" cm="1">
+        <f t="array" ref="N51">TREND(L$51:L$58,K$51:K$58,M51)</f>
+        <v>-4.2868391750859391</v>
+      </c>
+      <c r="O51" s="1">
+        <f>N52-N51</f>
+        <v>4.7783159248132892</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>1.85</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:C59" si="19">LOG(A52)</f>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:D59" si="20">LOG(B52)</f>
+        <v>0.26717172840301384</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52">TREND(D$51:D$59,C$51:C$59,E52)</f>
+        <v>0.26769349289134414</v>
+      </c>
+      <c r="I52">
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>3.07</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ref="K52:K59" si="21">LOG(I52)</f>
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ref="L52:L59" si="22">LOG(J52)</f>
+        <v>0.48713837547718647</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" cm="1">
+        <f t="array" ref="N52">TREND(L$51:L$58,K$51:K$58,M52)</f>
+        <v>0.49147674972735</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>15</v>
       </c>
-      <c r="B51">
-        <v>7.67</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="17"/>
-        <v>1.1760912590556813</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="18"/>
-        <v>0.88479536394898095</v>
-      </c>
-      <c r="I51">
-        <v>15</v>
-      </c>
-      <c r="J51">
-        <v>71.41</v>
-      </c>
-      <c r="K51">
+      <c r="B53">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C53">
         <f t="shared" si="19"/>
         <v>1.1760912590556813</v>
       </c>
-      <c r="L51">
+      <c r="D53">
         <f t="shared" si="20"/>
-        <v>1.8537590330747686</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52">
+        <v>0.9268567089496923</v>
+      </c>
+      <c r="I53">
+        <v>15</v>
+      </c>
+      <c r="J53">
+        <v>15.19</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="21"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="22"/>
+        <v>1.1815577738627863</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>20</v>
       </c>
-      <c r="B52">
-        <v>27.31</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="17"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="18"/>
-        <v>1.4363217001397333</v>
-      </c>
-      <c r="I52">
-        <v>20</v>
-      </c>
-      <c r="J52">
-        <v>391.37</v>
-      </c>
-      <c r="K52">
+      <c r="B54">
+        <v>36.39</v>
+      </c>
+      <c r="C54">
         <f t="shared" si="19"/>
         <v>1.3010299956639813</v>
       </c>
-      <c r="L52">
+      <c r="D54">
         <f t="shared" si="20"/>
-        <v>2.5925875322729297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53">
+        <v>1.5609820555862355</v>
+      </c>
+      <c r="I54">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="21"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="22"/>
+        <v>1.8279505283026303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>25</v>
       </c>
-      <c r="B53">
-        <v>83.6</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="17"/>
-        <v>1.3979400086720377</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="18"/>
-        <v>1.9222062774390163</v>
-      </c>
-      <c r="I53">
-        <v>25</v>
-      </c>
-      <c r="J53">
-        <v>1217.54</v>
-      </c>
-      <c r="K53">
+      <c r="B55">
+        <v>116.15</v>
+      </c>
+      <c r="C55">
         <f t="shared" si="19"/>
         <v>1.3979400086720377</v>
       </c>
-      <c r="L53">
+      <c r="D55">
         <f t="shared" si="20"/>
-        <v>3.0854832380541581</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>30</v>
-      </c>
-      <c r="B54">
-        <v>180.54</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="17"/>
-        <v>1.4771212547196624</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="18"/>
-        <v>2.2565734381237244</v>
-      </c>
-      <c r="I54">
-        <v>30</v>
-      </c>
-      <c r="J54">
-        <v>3402.6</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="19"/>
-        <v>1.4771212547196624</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="20"/>
-        <v>3.5318108976696423</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>40</v>
-      </c>
-      <c r="B55">
-        <v>762.6</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="17"/>
-        <v>1.6020599913279623</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="18"/>
-        <v>2.8822968009376519</v>
+        <v>2.0650192141362544</v>
+      </c>
+      <c r="I55">
+        <v>25</v>
+      </c>
+      <c r="J55">
+        <v>202.65</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="21"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="22"/>
+        <v>2.3067466080777117</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B56">
-        <v>2894.4</v>
+        <v>345.97</v>
       </c>
       <c r="C56">
-        <f t="shared" si="17"/>
-        <v>1.6989700043360187</v>
+        <f t="shared" ref="C56:C58" si="23">LOG(A56)</f>
+        <v>1.4771212547196624</v>
       </c>
       <c r="D56">
-        <f t="shared" si="18"/>
-        <v>3.4615585495157384</v>
+        <f t="shared" ref="D56:D58" si="24">LOG(B56)</f>
+        <v>2.5390384415692981</v>
+      </c>
+      <c r="I56">
+        <v>30</v>
+      </c>
+      <c r="J56">
+        <v>603.03</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ref="K56:K58" si="25">LOG(I56)</f>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="L56">
+        <f t="shared" ref="L56:L58" si="26">LOG(J56)</f>
+        <v>2.7803389182933311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>814.85</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="23"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="24"/>
+        <v>2.9110776698836776</v>
+      </c>
+      <c r="I57">
+        <v>35</v>
+      </c>
+      <c r="J57">
+        <v>1396.8</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="25"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="26"/>
+        <v>3.1451342263614945</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" t="s">
-        <v>14</v>
+      <c r="A58">
+        <v>40</v>
+      </c>
+      <c r="B58">
+        <v>1990.26</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="23"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="24"/>
+        <v>3.2989098146958766</v>
+      </c>
+      <c r="I58">
+        <v>40</v>
+      </c>
+      <c r="J58">
+        <v>3358.59</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="25"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="26"/>
+        <v>3.5261569905622587</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" t="s">
-        <v>2</v>
-      </c>
-      <c r="L59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="A59">
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <v>4033.39</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="19"/>
+        <v>1.6532125137753437</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="20"/>
+        <v>3.6056702172119355</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>5</v>
       </c>
-      <c r="B60">
-        <v>0.08</v>
-      </c>
-      <c r="C60">
-        <f>LOG(A60)</f>
+      <c r="B62">
+        <v>0.11</v>
+      </c>
+      <c r="C62">
+        <f>LOG(A62)</f>
         <v>0.69897000433601886</v>
       </c>
-      <c r="D60">
-        <f>LOG(B60)</f>
-        <v>-1.0969100130080565</v>
-      </c>
-      <c r="E60">
+      <c r="D62">
+        <f>LOG(B62)</f>
+        <v>-0.95860731484177497</v>
+      </c>
+      <c r="E62">
         <v>0</v>
       </c>
-      <c r="F60" cm="1">
-        <f t="array" ref="F60">TREND(D$60:D$65,C$60:C$65,E60)</f>
-        <v>-5.2253515279105684</v>
-      </c>
-      <c r="G60" s="1">
-        <f>F61-F60</f>
-        <v>5.8616845957941663</v>
-      </c>
-      <c r="I60" s="2">
+      <c r="F62" cm="1">
+        <f t="array" ref="F62">TREND(D$62:D$71,C$62:C$71,E62)</f>
+        <v>-4.0675691140002748</v>
+      </c>
+      <c r="G62" s="1">
+        <f>F63-F62</f>
+        <v>4.3310442080103719</v>
+      </c>
+      <c r="I62">
         <v>5</v>
       </c>
-      <c r="J60">
-        <v>0.16</v>
-      </c>
-      <c r="K60">
-        <f>LOG(I60)</f>
+      <c r="J62">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K62">
+        <f>LOG(I62)</f>
         <v>0.69897000433601886</v>
       </c>
-      <c r="L60">
-        <f>LOG(J60)</f>
-        <v>-0.79588001734407521</v>
-      </c>
-      <c r="M60">
+      <c r="L62">
+        <f>LOG(J62)</f>
+        <v>-0.85387196432176193</v>
+      </c>
+      <c r="M62">
         <v>0</v>
       </c>
-      <c r="N60" cm="1">
-        <f t="array" ref="N60">TREND(L$60:L$65,K$60:K$65,M60)</f>
-        <v>-4.8602665310354087</v>
-      </c>
-      <c r="O60" s="1">
-        <f>N61-N60</f>
-        <v>5.8270965387818405</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="N62" cm="1">
+        <f t="array" ref="N62">TREND(L$62:L$69,K$62:K$69,M62)</f>
+        <v>-4.316798957469504</v>
+      </c>
+      <c r="O62" s="1">
+        <f>N63-N62</f>
+        <v>4.800219900699668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>10</v>
       </c>
-      <c r="B61">
-        <v>5.04</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ref="C61:C65" si="21">LOG(A61)</f>
+      <c r="B63">
+        <v>2.4</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:C71" si="27">LOG(A63)</f>
         <v>1</v>
       </c>
-      <c r="D61">
-        <f t="shared" ref="D61:D65" si="22">LOG(B61)</f>
-        <v>0.70243053644552533</v>
-      </c>
-      <c r="E61">
+      <c r="D63">
+        <f t="shared" ref="D63:D71" si="28">LOG(B63)</f>
+        <v>0.38021124171160603</v>
+      </c>
+      <c r="E63">
         <v>1</v>
       </c>
-      <c r="F61" cm="1">
-        <f t="array" ref="F61">TREND(D$60:D$65,C$60:C$65,E61)</f>
-        <v>0.63633306788359789</v>
-      </c>
-      <c r="I61" s="2">
+      <c r="F63" cm="1">
+        <f t="array" ref="F63">TREND(D$62:D$71,C$62:C$71,E63)</f>
+        <v>0.26347509401009717</v>
+      </c>
+      <c r="I63">
         <v>10</v>
       </c>
-      <c r="J61">
-        <v>11.6</v>
-      </c>
-      <c r="K61">
-        <f t="shared" ref="K61:K65" si="23">LOG(I61)</f>
+      <c r="J63">
+        <v>3.12</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ref="K63:K69" si="29">LOG(I63)</f>
         <v>1</v>
       </c>
-      <c r="L61">
-        <f t="shared" ref="L61:L65" si="24">LOG(J61)</f>
-        <v>1.0644579892269184</v>
-      </c>
-      <c r="M61">
+      <c r="L63">
+        <f t="shared" ref="L63:L69" si="30">LOG(J63)</f>
+        <v>0.49415459401844281</v>
+      </c>
+      <c r="M63">
         <v>1</v>
       </c>
-      <c r="N61" cm="1">
-        <f t="array" ref="N61">TREND(L$60:L$65,K$60:K$65,M61)</f>
-        <v>0.9668300077464318</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="N63" cm="1">
+        <f t="array" ref="N63">TREND(L$62:L$69,K$62:K$69,M63)</f>
+        <v>0.48342094323016394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>15</v>
       </c>
-      <c r="B62">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="21"/>
+      <c r="B64">
+        <v>7.69</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="27"/>
         <v>1.1760912590556813</v>
       </c>
-      <c r="D62">
-        <f t="shared" si="22"/>
-        <v>1.5403294747908738</v>
-      </c>
-      <c r="I62" s="2">
+      <c r="D64">
+        <f t="shared" si="28"/>
+        <v>0.8859263398014311</v>
+      </c>
+      <c r="I64">
         <v>15</v>
       </c>
-      <c r="J62">
-        <v>79.739999999999995</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="23"/>
+      <c r="J64">
+        <v>15.24</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="29"/>
         <v>1.1760912590556813</v>
       </c>
-      <c r="L62">
-        <f t="shared" si="24"/>
-        <v>1.9016762313263755</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="L64">
+        <f t="shared" si="30"/>
+        <v>1.1829849670035817</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>20</v>
       </c>
-      <c r="B63">
-        <v>207.94</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="21"/>
+      <c r="B65">
+        <v>27.31</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="27"/>
         <v>1.3010299956639813</v>
       </c>
-      <c r="D63">
-        <f t="shared" si="22"/>
-        <v>2.317938039636056</v>
-      </c>
-      <c r="I63" s="2">
+      <c r="D65">
+        <f t="shared" si="28"/>
+        <v>1.4363217001397333</v>
+      </c>
+      <c r="I65">
         <v>20</v>
       </c>
-      <c r="J63">
-        <v>466.13</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="23"/>
+      <c r="J65">
+        <v>67.19</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="29"/>
         <v>1.3010299956639813</v>
       </c>
-      <c r="L63">
-        <f t="shared" si="24"/>
-        <v>2.6685070549068013</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="L65">
+        <f t="shared" si="30"/>
+        <v>1.8273046410897349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>25</v>
       </c>
-      <c r="B64">
-        <v>860.73</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="21"/>
+      <c r="B66">
+        <v>84.62</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C69" si="31">LOG(A66)</f>
         <v>1.3979400086720377</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="22"/>
-        <v>2.9348669401881544</v>
-      </c>
-      <c r="I64" s="2">
+      <c r="D66">
+        <f t="shared" ref="D66:D69" si="32">LOG(B66)</f>
+        <v>1.927473020995276</v>
+      </c>
+      <c r="I66">
         <v>25</v>
       </c>
-      <c r="J64">
-        <v>1759.07</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="23"/>
+      <c r="J66">
+        <v>205.1</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ref="K66:K69" si="33">LOG(I66)</f>
         <v>1.3979400086720377</v>
       </c>
-      <c r="L64">
-        <f t="shared" si="24"/>
-        <v>3.245283122009393</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="L66">
+        <f t="shared" ref="L66:L69" si="34">LOG(J66)</f>
+        <v>2.3119656603683665</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>30</v>
       </c>
-      <c r="B65">
-        <v>3809.5</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="21"/>
+      <c r="B67">
+        <v>180.05</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="31"/>
         <v>1.4771212547196624</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="22"/>
-        <v>3.5808679779090302</v>
-      </c>
-      <c r="I65" s="2">
+      <c r="D67">
+        <f t="shared" si="32"/>
+        <v>2.2553931257073043</v>
+      </c>
+      <c r="I67">
         <v>30</v>
       </c>
-      <c r="J65">
-        <v>6951.89</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="23"/>
+      <c r="J67">
+        <v>625.57000000000005</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="33"/>
         <v>1.4771212547196624</v>
       </c>
-      <c r="L65">
-        <f t="shared" si="24"/>
-        <v>3.8421028916381128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67" t="s">
-        <v>17</v>
+      <c r="L67">
+        <f t="shared" si="34"/>
+        <v>2.7962759134103927</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B68">
-        <v>0.08</v>
+        <v>370.58</v>
       </c>
       <c r="C68">
-        <f>LOG(A68)</f>
-        <v>0.69897000433601886</v>
+        <f t="shared" si="31"/>
+        <v>1.5440680443502757</v>
       </c>
       <c r="D68">
-        <f>LOG(B68)</f>
-        <v>-1.0969100130080565</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" cm="1">
-        <f t="array" ref="F68">TREND(D$68:D$75,C$68:C$75,E68)</f>
-        <v>-4.196413250376172</v>
-      </c>
-      <c r="G68" s="1">
-        <f>F69-F68</f>
-        <v>4.3095282430756994</v>
+        <f t="shared" si="32"/>
+        <v>2.5688819769795863</v>
       </c>
       <c r="I68">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J68">
-        <v>0.15</v>
+        <v>1381.07</v>
       </c>
       <c r="K68">
-        <f>LOG(I68)</f>
-        <v>0.69897000433601886</v>
+        <f t="shared" si="33"/>
+        <v>1.5440680443502757</v>
       </c>
       <c r="L68">
-        <f>LOG(J68)</f>
-        <v>-0.82390874094431876</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68" cm="1">
-        <f t="array" ref="N68">TREND(L$68:L$73,K$68:K$73,M68)</f>
-        <v>-4.9202003433478483</v>
-      </c>
-      <c r="O68" s="1">
-        <f>N69-N68</f>
-        <v>5.8786372918382881</v>
+        <f t="shared" si="34"/>
+        <v>3.1402156914991872</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B69">
-        <v>1.73</v>
+        <v>773.88</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C75" si="25">LOG(A69)</f>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>1.6020599913279623</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D75" si="26">LOG(B69)</f>
-        <v>0.2380461031287954</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" cm="1">
-        <f t="array" ref="F69">TREND(D$68:D$75,C$68:C$75,E69)</f>
-        <v>0.11311499269952741</v>
+        <f t="shared" si="32"/>
+        <v>2.8886736229849665</v>
       </c>
       <c r="I69">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J69">
-        <v>11.34</v>
+        <v>3279.2</v>
       </c>
       <c r="K69">
-        <f t="shared" ref="K69:K75" si="27">LOG(I69)</f>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>1.6020599913279623</v>
       </c>
       <c r="L69">
-        <f t="shared" ref="L69:L75" si="28">LOG(J69)</f>
-        <v>1.0546130545568877</v>
-      </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="N69" cm="1">
-        <f t="array" ref="N69">TREND(L$68:L$73,K$68:K$73,M69)</f>
-        <v>0.95843694849043981</v>
+        <f t="shared" si="34"/>
+        <v>3.5157679053084454</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B70">
-        <v>5.41</v>
+        <v>1421.5</v>
       </c>
       <c r="C70">
-        <f t="shared" si="25"/>
-        <v>1.1760912590556813</v>
+        <f t="shared" si="27"/>
+        <v>1.6532125137753437</v>
       </c>
       <c r="D70">
-        <f t="shared" si="26"/>
-        <v>0.73319726510656946</v>
-      </c>
-      <c r="I70">
-        <v>15</v>
-      </c>
-      <c r="J70">
-        <v>82.22</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="27"/>
-        <v>1.1760912590556813</v>
-      </c>
-      <c r="L70">
         <f t="shared" si="28"/>
-        <v>1.9149774724443309</v>
+        <v>3.1527468640264611</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B71">
-        <v>17.86</v>
+        <v>2955.37</v>
       </c>
       <c r="C71">
-        <f t="shared" si="25"/>
-        <v>1.3010299956639813</v>
+        <f t="shared" si="27"/>
+        <v>1.6989700043360187</v>
       </c>
       <c r="D71">
-        <f t="shared" si="26"/>
-        <v>1.2518814545525276</v>
-      </c>
-      <c r="I71">
-        <v>20</v>
-      </c>
-      <c r="J71">
-        <v>466.86</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="27"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="L71">
         <f t="shared" si="28"/>
-        <v>2.6691866656989545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>25</v>
-      </c>
-      <c r="B72">
-        <v>56.64</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="25"/>
-        <v>1.3979400086720377</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="26"/>
-        <v>1.7531232446817127</v>
-      </c>
-      <c r="I72">
-        <v>25</v>
-      </c>
-      <c r="J72">
-        <v>1874.98</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="27"/>
-        <v>1.3979400086720377</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="28"/>
-        <v>3.2729966395645573</v>
+        <v>3.470611860479234</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>30</v>
-      </c>
-      <c r="B73">
-        <v>119.25</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="25"/>
-        <v>1.4771212547196624</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="26"/>
-        <v>2.0764583877121514</v>
-      </c>
-      <c r="I73">
-        <v>30</v>
-      </c>
-      <c r="J73">
-        <v>6951.86</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="27"/>
-        <v>1.4771212547196624</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="28"/>
-        <v>3.8421010174912884</v>
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>40</v>
-      </c>
-      <c r="B74">
-        <v>563.79999999999995</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="25"/>
-        <v>1.6020599913279623</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="26"/>
-        <v>2.7511250715355833</v>
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" t="s">
+        <v>2</v>
+      </c>
+      <c r="L74" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>0.08</v>
+      </c>
+      <c r="C75">
+        <f>LOG(A75)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D75">
+        <f>LOG(B75)</f>
+        <v>-1.0969100130080565</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" cm="1">
+        <f t="array" ref="F75">TREND(D$75:D$83,C$75:C$83,E75)</f>
+        <v>-4.5708199692911151</v>
+      </c>
+      <c r="G75" s="1">
+        <f>F76-F75</f>
+        <v>4.7001644992474994</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>0.15</v>
+      </c>
+      <c r="K75">
+        <f>LOG(I75)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="L75">
+        <f>LOG(J75)</f>
+        <v>-0.82390874094431876</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" cm="1">
+        <f t="array" ref="N75">TREND(L$75:L$82,K$75:K$82,M75)</f>
+        <v>-4.2643951926720618</v>
+      </c>
+      <c r="O75" s="1">
+        <f>N76-N75</f>
+        <v>4.7623976920448596</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>1.38</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ref="C76:C83" si="35">LOG(A76)</f>
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ref="D76:D83" si="36">LOG(B76)</f>
+        <v>0.13987908640123647</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" cm="1">
+        <f t="array" ref="F76">TREND(D$75:D$83,C$75:C$83,E76)</f>
+        <v>0.12934452995638424</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>3.29</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ref="K76:K79" si="37">LOG(I76)</f>
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <f t="shared" ref="L76:L79" si="38">LOG(J76)</f>
+        <v>0.51719589794997434</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76" cm="1">
+        <f t="array" ref="N76">TREND(L$75:L$82,K$75:K$82,M76)</f>
+        <v>0.49800249937279784</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>6.12</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="35"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="36"/>
+        <v>0.78675142214556115</v>
+      </c>
+      <c r="I77">
+        <v>15</v>
+      </c>
+      <c r="J77">
+        <v>15.67</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="37"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="38"/>
+        <v>1.1950689964685901</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>20</v>
+      </c>
+      <c r="B78">
+        <v>24.05</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="35"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="36"/>
+        <v>1.3811150807098507</v>
+      </c>
+      <c r="I78">
+        <v>20</v>
+      </c>
+      <c r="J78">
+        <v>65.47</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="37"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="38"/>
+        <v>1.8160423409219966</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>25</v>
+      </c>
+      <c r="B79">
+        <v>70.02</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="35"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="36"/>
+        <v>1.8452221064290137</v>
+      </c>
+      <c r="I79">
+        <v>25</v>
+      </c>
+      <c r="J79">
+        <v>199.51</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="37"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="38"/>
+        <v>2.2999646686241553</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>30</v>
+      </c>
+      <c r="B80">
+        <v>192.64</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ref="C80:C82" si="39">LOG(A80)</f>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80:D82" si="40">LOG(B80)</f>
+        <v>2.2847464695777306</v>
+      </c>
+      <c r="I80">
+        <v>30</v>
+      </c>
+      <c r="J80">
+        <v>572.52</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ref="K80:K82" si="41">LOG(I80)</f>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="L80">
+        <f t="shared" ref="L80:L82" si="42">LOG(J80)</f>
+        <v>2.7577906626065509</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>35</v>
+      </c>
+      <c r="B81">
+        <v>480.27</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="39"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="40"/>
+        <v>2.6814854593406676</v>
+      </c>
+      <c r="I81">
+        <v>35</v>
+      </c>
+      <c r="J81">
+        <v>1395.33</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="41"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="42"/>
+        <v>3.1446769317889758</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>40</v>
+      </c>
+      <c r="B82">
+        <v>1254.77</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="39"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="40"/>
+        <v>3.0985641267054911</v>
+      </c>
+      <c r="I82">
+        <v>40</v>
+      </c>
+      <c r="J82">
+        <v>3479.47</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="41"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="42"/>
+        <v>3.5415130963589476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>45</v>
+      </c>
+      <c r="B83">
+        <v>2760.79</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="35"/>
+        <v>1.6532125137753437</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="36"/>
+        <v>3.4410333732058138</v>
+      </c>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>0.08</v>
+      </c>
+      <c r="C86">
+        <f>LOG(A86)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D86">
+        <f>LOG(B86)</f>
+        <v>-1.0969100130080565</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" cm="1">
+        <f t="array" ref="F86">TREND(D$86:D$95,C$86:C$95,E86)</f>
+        <v>-4.1892857840239319</v>
+      </c>
+      <c r="G86" s="1">
+        <f>F87-F86</f>
+        <v>4.3112207664753113</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+      <c r="J86">
+        <v>0.13</v>
+      </c>
+      <c r="K86">
+        <f>LOG(I86)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="L86">
+        <f>LOG(J86)</f>
+        <v>-0.88605664769316317</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" cm="1">
+        <f t="array" ref="N86">TREND(L$86:L$93,K$86:K$93,M86)</f>
+        <v>-4.3294961448347591</v>
+      </c>
+      <c r="O86" s="1">
+        <f>N87-N86</f>
+        <v>4.8010395339216263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>1.81</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ref="C87:C95" si="43">LOG(A87)</f>
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ref="D87:D95" si="44">LOG(B87)</f>
+        <v>0.2576785748691845</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" cm="1">
+        <f t="array" ref="F87">TREND(D$86:D$95,C$86:C$95,E87)</f>
+        <v>0.12193498245137935</v>
+      </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
+      <c r="J87">
+        <v>3.25</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ref="K87:K93" si="45">LOG(I87)</f>
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <f t="shared" ref="L87:L93" si="46">LOG(J87)</f>
+        <v>0.51188336097887432</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87" cm="1">
+        <f t="array" ref="N87">TREND(L$86:L$93,K$86:K$93,M87)</f>
+        <v>0.47154338908686722</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>15</v>
+      </c>
+      <c r="B88">
+        <v>5.59</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="43"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="44"/>
+        <v>0.74741180788642325</v>
+      </c>
+      <c r="I88">
+        <v>15</v>
+      </c>
+      <c r="J88">
+        <v>15.53</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="45"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="46"/>
+        <v>1.1911714557285584</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>20</v>
+      </c>
+      <c r="B89">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="43"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="44"/>
+        <v>1.2706788361447063</v>
+      </c>
+      <c r="I89">
+        <v>20</v>
+      </c>
+      <c r="J89">
+        <v>66.680000000000007</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="45"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="46"/>
+        <v>1.8239955911559678</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>25</v>
+      </c>
+      <c r="B90">
+        <v>58.31</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="43"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="44"/>
+        <v>1.7657430414210444</v>
+      </c>
+      <c r="I90">
+        <v>25</v>
+      </c>
+      <c r="J90">
+        <v>190.04</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="45"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="46"/>
+        <v>2.2788450217471676</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>30</v>
+      </c>
+      <c r="B91">
+        <v>121.59</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ref="C91:C93" si="47">LOG(A91)</f>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ref="D91:D93" si="48">LOG(B91)</f>
+        <v>2.0848978584613556</v>
+      </c>
+      <c r="I91">
+        <v>30</v>
+      </c>
+      <c r="J91">
+        <v>542.71</v>
+      </c>
+      <c r="K91">
+        <f t="shared" ref="K91:K92" si="49">LOG(I91)</f>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="L91">
+        <f t="shared" ref="L91:L92" si="50">LOG(J91)</f>
+        <v>2.7345678239837641</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>35</v>
+      </c>
+      <c r="B92">
+        <v>260.83999999999997</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="47"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="48"/>
+        <v>2.416374191535422</v>
+      </c>
+      <c r="I92">
+        <v>35</v>
+      </c>
+      <c r="J92">
+        <v>1344.05</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="49"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="50"/>
+        <v>3.1284154252060397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>40</v>
+      </c>
+      <c r="B93">
+        <v>564.99</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="47"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="48"/>
+        <v>2.7520407611234163</v>
+      </c>
+      <c r="I93">
+        <v>40</v>
+      </c>
+      <c r="J93">
+        <v>3457.45</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="45"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="46"/>
+        <v>3.5387559082662046</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>45</v>
+      </c>
+      <c r="B94">
+        <v>980.01</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="43"/>
+        <v>1.6532125137753437</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="44"/>
+        <v>2.9912305072462311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>50</v>
       </c>
-      <c r="B75">
-        <v>2161.6999999999998</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="25"/>
+      <c r="B95">
+        <v>2151.41</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="43"/>
         <v>1.6989700043360187</v>
       </c>
-      <c r="D75">
-        <f t="shared" si="26"/>
-        <v>3.3347954225567737</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="D95">
+        <f t="shared" si="44"/>
+        <v>3.3327231829442945</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>5</v>
       </c>
-      <c r="B79">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="C79" s="2">
+      <c r="B99">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C99">
+        <f>LOG(A99)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D99">
+        <f>LOG(B99)</f>
+        <v>-0.76195389687120463</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" cm="1">
+        <f t="array" ref="F99">TREND(D$99:D$103,C$99:C$103,E99)</f>
+        <v>-5.1923360751195808</v>
+      </c>
+      <c r="G99" s="1">
+        <f>F100-F99</f>
+        <v>5.9533218065311919</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="K99">
+        <f>LOG(I99)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="L99">
+        <f>LOG(J99)</f>
+        <v>-0.63638802010785567</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" cm="1">
+        <f t="array" ref="N99">TREND(L$99:L$103,K$99:K$103,M99)</f>
+        <v>-5.1766898523449072</v>
+      </c>
+      <c r="O99" s="1">
+        <f>N100-N99</f>
+        <v>6.0701073939936698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>10</v>
+      </c>
+      <c r="B100">
+        <v>2.7639999999999998</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ref="C100:C103" si="51">LOG(A100)</f>
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ref="D100:D103" si="52">LOG(B100)</f>
+        <v>0.44153803870216074</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" cm="1">
+        <f t="array" ref="F100">TREND(D$99:D$103,C$99:C$103,E100)</f>
+        <v>0.76098573141161108</v>
+      </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
+      <c r="J100">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="K100">
+        <f t="shared" ref="K100" si="53">LOG(I100)</f>
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <f t="shared" ref="L100" si="54">LOG(J100)</f>
+        <v>0.53516748511494416</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100" cm="1">
+        <f t="array" ref="N100">TREND(L$99:L$103,K$99:K$103,M100)</f>
+        <v>0.89341754164876264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>15</v>
+      </c>
+      <c r="B101">
+        <v>33.363</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="51"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="52"/>
+        <v>1.5232650954688884</v>
+      </c>
+      <c r="I101">
+        <v>15</v>
+      </c>
+      <c r="J101">
+        <v>43.750999999999998</v>
+      </c>
+      <c r="K101">
+        <f t="shared" ref="K101:K103" si="55">LOG(I101)</f>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="L101">
+        <f t="shared" ref="L101:L103" si="56">LOG(J101)</f>
+        <v>1.6409879839759003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>20</v>
+      </c>
+      <c r="B102">
+        <v>378.56799999999998</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="51"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="52"/>
+        <v>2.5781439006716962</v>
+      </c>
+      <c r="I102">
+        <v>20</v>
+      </c>
+      <c r="J102">
+        <v>605.02200000000005</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="55"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="56"/>
+        <v>2.7817711668919536</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>25</v>
+      </c>
+      <c r="B103">
+        <v>2762.6660000000002</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="51"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="52"/>
+        <v>3.4413283828806907</v>
+      </c>
+      <c r="I103">
+        <v>25</v>
+      </c>
+      <c r="J103">
+        <v>4265.6040000000003</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="55"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="56"/>
+        <v>3.6299805349864642</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>0.3</v>
+      </c>
+      <c r="C109" s="2">
         <v>0.69896999999999998</v>
       </c>
-      <c r="D79" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E79" s="2">
+      <c r="D109" s="2">
+        <v>1.9084850200000001</v>
+      </c>
+      <c r="E109" s="2">
         <v>0</v>
       </c>
-      <c r="F79" cm="1">
-        <f t="array" ref="F79">TREND(D$79:D$81,C$79:C$81,E79)</f>
-        <v>-4.8707301416209576</v>
-      </c>
-      <c r="G79" s="1">
-        <f>F80-F79</f>
-        <v>5.5860806996727694</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+      <c r="F109" cm="1">
+        <f t="array" ref="F109">TREND(D$109:D$112,C$109:C$112,E109)</f>
+        <v>-6.935572241451915E-3</v>
+      </c>
+      <c r="G109" s="1">
+        <f>F110-F109</f>
+        <v>2.7742042564859579</v>
+      </c>
+      <c r="I109">
+        <v>5</v>
+      </c>
+      <c r="J109">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="K109">
+        <f>LOG(I109)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="L109">
+        <f>LOG(J109)</f>
+        <v>-0.47495519296315475</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109" cm="1">
+        <f t="array" ref="N109">TREND(L$109:L$112,K$109:K$112,M109)</f>
+        <v>-4.7774318813755201</v>
+      </c>
+      <c r="O109" s="1">
+        <f>N110-N109</f>
+        <v>5.9132743791759772</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
         <v>10</v>
       </c>
-      <c r="B80">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="C80" s="2">
+      <c r="B110">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C110" s="2">
         <v>1</v>
       </c>
-      <c r="D80" s="2">
-        <v>0.80685803</v>
-      </c>
-      <c r="E80" s="2">
+      <c r="D110" s="2">
+        <v>2.82216808</v>
+      </c>
+      <c r="E110" s="2">
         <v>1</v>
       </c>
-      <c r="F80" cm="1">
-        <f t="array" ref="F80">TREND(D$79:D$81,C$79:C$81,E80)</f>
-        <v>0.7153505580518118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+      <c r="F110" cm="1">
+        <f t="array" ref="F110">TREND(D$109:D$112,C$109:C$112,E110)</f>
+        <v>2.767268684244506</v>
+      </c>
+      <c r="I110">
+        <v>10</v>
+      </c>
+      <c r="J110">
+        <v>7.3479999999999999</v>
+      </c>
+      <c r="K110">
+        <f t="shared" ref="K110:K112" si="57">LOG(I110)</f>
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <f t="shared" ref="L110:L112" si="58">LOG(J110)</f>
+        <v>0.86616914763377073</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110" cm="1">
+        <f t="array" ref="N110">TREND(L$109:L$112,K$109:K$112,M110)</f>
+        <v>1.1358424978004571</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
         <v>15</v>
       </c>
-      <c r="B81">
-        <v>558.68399999999997</v>
-      </c>
-      <c r="C81" s="2">
+      <c r="B111">
+        <v>104.4</v>
+      </c>
+      <c r="C111" s="2">
         <v>1.17609126</v>
       </c>
-      <c r="D81" s="2">
-        <v>1.6412757600000001</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>5</v>
-      </c>
-      <c r="B87">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="C87" s="2">
-        <v>0.69896999999999998</v>
-      </c>
-      <c r="D87" s="2">
-        <v>1.9084850200000001</v>
-      </c>
-      <c r="E87" s="2">
-        <v>0</v>
-      </c>
-      <c r="F87" cm="1">
-        <f t="array" ref="F87">TREND(D$87:D$94,C$87:C$94,E87)</f>
-        <v>6.2877731247330981E-2</v>
-      </c>
-      <c r="G87" s="1">
-        <f>F88-F87</f>
-        <v>2.6995917569097565</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>10</v>
-      </c>
-      <c r="B88">
-        <v>4.0259999999999998</v>
-      </c>
-      <c r="C88" s="2">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2">
-        <v>2.82216808</v>
-      </c>
-      <c r="E88" s="2">
-        <v>1</v>
-      </c>
-      <c r="F88" cm="1">
-        <f t="array" ref="F88">TREND(D$87:D$94,C$87:C$94,E88)</f>
-        <v>2.7624694881570875</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
+      <c r="D111" s="2">
+        <v>3.23754374</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="I111">
         <v>15</v>
       </c>
-      <c r="B89">
-        <v>19.978000000000002</v>
-      </c>
-      <c r="C89" s="2">
-        <v>1.17609126</v>
-      </c>
-      <c r="D89" s="2">
-        <v>3.23754374</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+      <c r="J111">
+        <v>102.604</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="57"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="58"/>
+        <v>2.011164292004505</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
         <v>20</v>
       </c>
-      <c r="B90">
-        <v>68.694999999999993</v>
-      </c>
-      <c r="C90" s="2">
+      <c r="B112">
+        <v>904.2</v>
+      </c>
+      <c r="C112" s="2">
         <v>1.3010299999999999</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D112" s="2">
         <v>3.5893910199999999</v>
       </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>25</v>
-      </c>
-      <c r="B91">
-        <v>127.229</v>
-      </c>
-      <c r="C91" s="2">
-        <v>1.3979400099999999</v>
-      </c>
-      <c r="D91" s="2">
-        <v>3.8215790300000001</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>30</v>
-      </c>
-      <c r="B92">
-        <v>179.083</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1.4771212499999999</v>
-      </c>
-      <c r="D92" s="2">
-        <v>4.0476252800000001</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>40</v>
-      </c>
-      <c r="B93">
-        <v>2594.8910000000001</v>
-      </c>
-      <c r="C93" s="2">
-        <v>1.6020599900000001</v>
-      </c>
-      <c r="D93" s="2">
-        <v>4.3803921600000004</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>50</v>
-      </c>
-      <c r="B94">
-        <v>3342.8029999999999</v>
-      </c>
-      <c r="C94" s="2">
-        <v>1.6989700000000001</v>
-      </c>
-      <c r="D94" s="2">
-        <v>4.6425040900000001</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="I112">
+        <v>20</v>
+      </c>
+      <c r="J112">
+        <v>1521.4849999999999</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="57"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="58"/>
+        <v>3.1822676750975112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
